--- a/testowe1.xlsx
+++ b/testowe1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="23">
   <si>
     <t>DANE</t>
   </si>
@@ -57,6 +57,24 @@
   </si>
   <si>
     <t>nowa7</t>
+  </si>
+  <si>
+    <t>nowa8</t>
+  </si>
+  <si>
+    <t>nowa9</t>
+  </si>
+  <si>
+    <t>nowa10</t>
+  </si>
+  <si>
+    <t>nowa11</t>
+  </si>
+  <si>
+    <t>nowa12</t>
+  </si>
+  <si>
+    <t>nowa13</t>
   </si>
   <si>
     <t>adam</t>
@@ -414,10 +432,10 @@
         <v>4.0</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -429,10 +447,10 @@
         <v>3.0</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -446,10 +464,10 @@
         <v>34.0</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -463,10 +481,10 @@
         <v>35.0</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -478,10 +496,10 @@
         <v>36.0</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -493,10 +511,10 @@
         <v>37.0</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -508,10 +526,10 @@
         <v>38.0</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -525,10 +543,10 @@
         <v>35.0</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -540,10 +558,10 @@
         <v>36.0</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -555,19 +573,119 @@
         <v>37.0</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C15" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16"/>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
+      <c r="C16" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18"/>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="21"/>
     <row r="22"/>
     <row r="23"/>
